--- a/target/test-classes/com/nmc/api/testdata/registrationData.xlsx
+++ b/target/test-classes/com/nmc/api/testdata/registrationData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="218">
   <si>
     <t xml:space="preserve">MLC Document</t>
   </si>
@@ -273,7 +273,7 @@
     <t xml:space="preserve">Secondary Diagnosis type</t>
   </si>
   <si>
-    <t xml:space="preserve">Diagnosis Code </t>
+    <t xml:space="preserve">Primery Diagnosis Code </t>
   </si>
   <si>
     <t xml:space="preserve">Diagnosis Status</t>
@@ -282,7 +282,64 @@
     <t xml:space="preserve">Year Of Onset</t>
   </si>
   <si>
-    <t xml:space="preserve">TestTemplate</t>
+    <t xml:space="preserve">Secondary Diagnosis Code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">visit ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baby name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">birth date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">birth time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestation Week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR number to discharge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ok to Discharge date
+&amp;
+Discharge date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ok to Discharge time
+&amp;
+Discharge time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bed Finalization
+Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bed Finalization
+Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type of Discharge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deth Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deth time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deth on arrival</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Death Reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discharge Doctor</t>
   </si>
   <si>
     <t xml:space="preserve">testmlcType1</t>
@@ -303,13 +360,16 @@
     <t xml:space="preserve">Mr.</t>
   </si>
   <si>
-    <t xml:space="preserve">Mahesh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ramesh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kumar</t>
+    <t xml:space="preserve">dhoiclj API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lfmdmho API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jhdkoaa API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62105</t>
   </si>
   <si>
     <t xml:space="preserve">laxmi</t>
@@ -324,6 +384,9 @@
     <t xml:space="preserve">Area1</t>
   </si>
   <si>
+    <t xml:space="preserve">ABU DHABI</t>
+  </si>
+  <si>
     <t xml:space="preserve">American</t>
   </si>
   <si>
@@ -348,6 +411,9 @@
     <t xml:space="preserve">Next Of Kin Address1</t>
   </si>
   <si>
+    <t xml:space="preserve">718545</t>
+  </si>
+  <si>
     <t xml:space="preserve">O-</t>
   </si>
   <si>
@@ -384,126 +450,247 @@
     <t xml:space="preserve">13qw12</t>
   </si>
   <si>
+    <t xml:space="preserve">01-07-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29-08-2050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">policy holder1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relationship1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-Mail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEXTCARE - ARAB GULF HEALTH SERVICES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RH NAS GN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RH NAS GN(C0,D20%(MAX50),PH20%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13qq12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bill Now</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RH - DAMAN LOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cardiology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Kamal Al Abdi (Cardiology)(GD11137)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIP Suits 3C, TF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3C VIP 3318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AABDUL HAFEEL AMBALATH(T3520)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complaint1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABDUL FATTAH TAYEH CLINIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Visit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01103-COMPLETE EXAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testconsultationRemark01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z12.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01-02-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E08.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A13I19060000005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UA1300000228516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13-06-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cardiac arrest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Aaia Taha Salih</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testTemplateName02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testmlcType02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testAccidentPlaceName02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testPoliceStation02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testmlcRemark02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testCetificateStatus02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mrs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rupa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kumari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fifa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">father</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">American2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Referral Remarks2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">189-2990-3719401-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remarks2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">change@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next Of Kin Address2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">291534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUSLIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SALARIED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mother Name2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Father Name2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13qw13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01-06-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29-06-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">policy holder2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relationship2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13qq13</t>
+  </si>
+  <si>
     <t xml:space="preserve">01-06-2019</t>
   </si>
   <si>
-    <t xml:space="preserve">29-06-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">policy holder1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relationship1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E-Mail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEXTCARE - ARAB GULF HEALTH SERVICES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RH NAS GN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RH NAS GN(C0,D20%(MAX50),PH20%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13qq12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bill Now</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RH - DAMAN LOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cardiology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Kamal Al Abdi (Cardiology)(GD11137)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIP Suits 3C, TF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3C VIP 3318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AABDUL HAFEEL AMBALATH(T3520)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complaint1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABDUL FATTAH TAYEH CLINIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main Visit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01103-COMPLETE EXAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testconsultationRemark01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secondary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Principal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z12.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01-02-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testTemplateName02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testmlcType02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testPoliceStation02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testmlcRemark02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testCetificateStatus02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rupa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kumari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fifa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">father</t>
+    <t xml:space="preserve">29-06-2050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3C VIP 3319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complaint2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01104-COMPLETE EXAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testconsultationRemark02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z12.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01-02-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E08.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="HH:MM"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -617,7 +804,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -670,6 +857,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -687,10 +878,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:DL20"/>
+  <dimension ref="A1:EX20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CR1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CZ3" activeCellId="0" sqref="CZ3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BE1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BG3" activeCellId="0" sqref="BG3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1054,6 +1245,120 @@
       <c r="DL1" s="0" t="n">
         <v>114</v>
       </c>
+      <c r="DM1" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="DN1" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="DO1" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="DP1" s="0" t="n">
+        <v>118</v>
+      </c>
+      <c r="DQ1" s="0" t="n">
+        <v>119</v>
+      </c>
+      <c r="DR1" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="DS1" s="0" t="n">
+        <v>121</v>
+      </c>
+      <c r="DT1" s="0" t="n">
+        <v>122</v>
+      </c>
+      <c r="DU1" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="DV1" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="DW1" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="DX1" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="DY1" s="0" t="n">
+        <v>127</v>
+      </c>
+      <c r="DZ1" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="EA1" s="0" t="n">
+        <v>129</v>
+      </c>
+      <c r="EB1" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="EC1" s="0" t="n">
+        <v>131</v>
+      </c>
+      <c r="ED1" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="EE1" s="0" t="n">
+        <v>133</v>
+      </c>
+      <c r="EF1" s="0" t="n">
+        <v>134</v>
+      </c>
+      <c r="EG1" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="EH1" s="0" t="n">
+        <v>136</v>
+      </c>
+      <c r="EI1" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="EJ1" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="EK1" s="0" t="n">
+        <v>139</v>
+      </c>
+      <c r="EL1" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="EM1" s="0" t="n">
+        <v>141</v>
+      </c>
+      <c r="EN1" s="0" t="n">
+        <v>142</v>
+      </c>
+      <c r="EO1" s="0" t="n">
+        <v>143</v>
+      </c>
+      <c r="EP1" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="EQ1" s="0" t="n">
+        <v>145</v>
+      </c>
+      <c r="ER1" s="0" t="n">
+        <v>146</v>
+      </c>
+      <c r="ES1" s="0" t="n">
+        <v>147</v>
+      </c>
+      <c r="ET1" s="0" t="n">
+        <v>148</v>
+      </c>
+      <c r="EU1" s="0" t="n">
+        <v>149</v>
+      </c>
+      <c r="EV1" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="EW1" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="EX1" s="0" t="n">
+        <v>152</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -1322,8 +1627,59 @@
       <c r="DA2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="DB2" s="0" t="s">
-        <v>27</v>
+      <c r="DB2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="DL2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="DM2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="DN2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="DO2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="DP2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="DQ2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="DW2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="DX2" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="DY2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="DZ2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="EA2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="EB2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="EC2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="ED2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="EE2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="EF2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="EG2" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1331,37 +1687,37 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>7082344</v>
+        <v>112</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>113</v>
       </c>
       <c r="M3" s="0" t="n">
         <v>12</v>
@@ -1376,59 +1732,61 @@
         <v>122334</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="S3" s="0" t="n">
         <v>234567</v>
       </c>
       <c r="Z3" s="11" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="AA3" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB3" s="11"/>
+        <v>117</v>
+      </c>
+      <c r="AB3" s="11" t="s">
+        <v>118</v>
+      </c>
       <c r="AC3" s="11" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="AD3" s="11" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="AE3" s="11" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="AF3" s="11" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="AG3" s="11" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="AH3" s="11" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="AI3" s="11" t="s">
         <v>27</v>
       </c>
       <c r="AJ3" s="11" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="AK3" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AL3" s="11" t="n">
-        <v>11867</v>
+        <v>126</v>
+      </c>
+      <c r="AL3" s="0" t="s">
+        <v>127</v>
       </c>
       <c r="AM3" s="11" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="AN3" s="11" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="AO3" s="11" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AP3" s="11" t="n">
         <v>12315621</v>
@@ -1440,155 +1798,198 @@
         <v>121321651</v>
       </c>
       <c r="AS3" s="11" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="AT3" s="11" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="AU3" s="11" t="n">
         <v>15351555</v>
       </c>
       <c r="AV3" s="11" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="AW3" s="11"/>
       <c r="AX3" s="11" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="AY3" s="11" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="AZ3" s="11"/>
       <c r="BA3" s="11" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="BB3" s="11" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="BC3" s="11" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="BD3" s="11" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="BE3" s="11" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="BF3" s="11" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="BG3" s="11" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="BH3" s="11" t="n">
         <v>1236</v>
       </c>
       <c r="BI3" s="11" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="BJ3" s="11" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="BK3" s="11" t="n">
         <v>233222</v>
       </c>
       <c r="BL3" s="11" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="BM3" s="11"/>
       <c r="BN3" s="11" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="BO3" s="11" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="BP3" s="11" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="BQ3" s="11" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="BR3" s="11" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="BS3" s="11" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="BT3" s="11" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="BU3" s="11" t="n">
         <v>1236</v>
       </c>
       <c r="BV3" s="11" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="BW3" s="11" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="BX3" s="11" t="n">
         <v>233222</v>
       </c>
       <c r="BY3" s="11" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="BZ3" s="12" t="n">
         <v>0</v>
       </c>
       <c r="CA3" s="12" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="CB3" s="12" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="CC3" s="11"/>
       <c r="CD3" s="11" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="CE3" s="11" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="CF3" s="11" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="CG3" s="11" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="CH3" s="11" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="CI3" s="11" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="CJ3" s="11" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="CK3" s="11" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="CO3" s="0" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="CP3" s="0" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="CQ3" s="0" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="CW3" s="0" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="CX3" s="5" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="CY3" s="0" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="CZ3" s="0" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="DA3" s="0" t="s">
-        <v>146</v>
+        <v>166</v>
+      </c>
+      <c r="DB3" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="DL3" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="DM3" s="11"/>
+      <c r="DN3" s="11"/>
+      <c r="DO3" s="11"/>
+      <c r="DP3" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="DQ3" s="11" t="n">
+        <v>24</v>
+      </c>
+      <c r="DR3" s="11"/>
+      <c r="DS3" s="11"/>
+      <c r="DT3" s="11"/>
+      <c r="DU3" s="11"/>
+      <c r="DV3" s="11"/>
+      <c r="DW3" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="DX3" s="11"/>
+      <c r="DY3" s="11"/>
+      <c r="DZ3" s="11"/>
+      <c r="EA3" s="11"/>
+      <c r="EB3" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="EC3" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="ED3" s="13" t="n">
+        <v>0.692361111111111</v>
+      </c>
+      <c r="EE3" s="11"/>
+      <c r="EF3" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="EG3" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1596,34 +1997,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>88</v>
+        <v>177</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>152</v>
+        <v>181</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="L4" s="0" t="n">
         <v>23443</v>
@@ -1641,36 +2042,260 @@
         <v>235667</v>
       </c>
       <c r="Q4" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>234568</v>
+      </c>
+      <c r="Z4" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA4" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD4" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE4" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF4" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG4" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH4" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="AI4" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="AJ4" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="AK4" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="AL4" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM4" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AN4" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO4" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP4" s="11" t="n">
+        <v>12315622</v>
+      </c>
+      <c r="AQ4" s="11" t="n">
+        <v>213219</v>
+      </c>
+      <c r="AR4" s="11" t="n">
+        <v>121321652</v>
+      </c>
+      <c r="AS4" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="AT4" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="AU4" s="11" t="n">
+        <v>15351556</v>
+      </c>
+      <c r="AV4" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW4" s="11"/>
+      <c r="AX4" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="AY4" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="AZ4" s="11"/>
+      <c r="BA4" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BB4" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC4" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="BD4" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="BE4" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="BF4" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="BG4" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="BH4" s="11" t="n">
+        <v>1237</v>
+      </c>
+      <c r="BI4" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="BJ4" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="BK4" s="11" t="n">
+        <v>233223</v>
+      </c>
+      <c r="BL4" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="BM4" s="11"/>
+      <c r="BN4" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BO4" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="BP4" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="BQ4" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="BR4" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="BS4" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="BT4" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="BU4" s="11" t="n">
+        <v>1237</v>
+      </c>
+      <c r="BV4" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="BW4" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="BX4" s="11" t="n">
+        <v>233223</v>
+      </c>
+      <c r="BY4" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="BZ4" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA4" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="CB4" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="CC4" s="11"/>
+      <c r="CD4" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="CE4" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="CF4" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="CG4" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="CH4" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="CI4" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="R4" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="S4" s="0" t="n">
-        <v>234557</v>
+      <c r="CJ4" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="CK4" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="CO4" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="CP4" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="CQ4" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="CW4" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="CX4" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="CY4" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="CZ4" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="DA4" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="DB4" s="10" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="AE5" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG5" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV5" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX5" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="AY5" s="0" t="s">
+        <v>217</v>
+      </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
@@ -1733,6 +2358,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="AJ3" r:id="rId1" display="swi.xwwsx@si.com"/>
+    <hyperlink ref="AJ4" r:id="rId2" display="change@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
